--- a/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80974291-69C8-472F-9128-C88FD94FA18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8EE9C7-D236-43F0-A0DC-EC02B074A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFD9B5FC-1037-48DA-912A-1423E40A9EC5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{373B5D31-45A6-4CC7-A5F7-E01336D99B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>12,36%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>87,64%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>16,11%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>9,62%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>90,38%</t>
   </si>
   <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>5,96%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>11,53%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC2A49B-9982-4F3D-AA0D-3DCA61F8A38D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D667480-E58D-4B02-A692-763C7B2D04D9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E8EE9C7-D236-43F0-A0DC-EC02B074A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C9ABFF-9CFC-460C-A825-9427C5C2E5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{373B5D31-45A6-4CC7-A5F7-E01336D99B6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42B4C7BA-0A43-41CF-AE3B-EEEEC8C6332E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,11%</t>
@@ -188,7 +188,7 @@
     <t>84,95%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>9,62%</t>
@@ -245,7 +245,7 @@
     <t>88,53%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D667480-E58D-4B02-A692-763C7B2D04D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F57913-3E09-4916-B218-D0FA998337B3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C9ABFF-9CFC-460C-A825-9427C5C2E5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2B1ADA-44EB-486D-BBED-0489057109A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42B4C7BA-0A43-41CF-AE3B-EEEEC8C6332E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D210E295-91F2-4031-9DBD-C369FFE1FAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>12,36%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>87,64%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>16,11%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>9,62%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>90,38%</t>
   </si>
   <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>5,96%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>11,53%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F57913-3E09-4916-B218-D0FA998337B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24465CD-75DD-4F3B-8406-C5919B9C8AA7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2B1ADA-44EB-486D-BBED-0489057109A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F08F01-695E-4111-8F73-DCA0E9BC1EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D210E295-91F2-4031-9DBD-C369FFE1FAA8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DCA0B360-7C11-4308-9C5B-C8C9A5786BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población con bienestar emocional por debajo del percentil 15 (Bericat) en 2023 (Tasa respuesta: 98,25%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>90,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24465CD-75DD-4F3B-8406-C5919B9C8AA7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2375CE20-E46F-44A6-9D6E-B89B2F0A4B54}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="D4" s="7">
-        <v>11937</v>
+        <v>92287</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="I4" s="7">
-        <v>28081</v>
+        <v>119989</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="N4" s="7">
-        <v>40017</v>
+        <v>212276</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>583</v>
       </c>
       <c r="D5" s="7">
-        <v>84656</v>
+        <v>532496</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>164</v>
+        <v>935</v>
       </c>
       <c r="I5" s="7">
-        <v>95233</v>
+        <v>537272</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>255</v>
+        <v>1518</v>
       </c>
       <c r="N5" s="7">
-        <v>179889</v>
+        <v>1069768</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>716</v>
       </c>
       <c r="D6" s="7">
-        <v>96593</v>
+        <v>624783</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>229</v>
+        <v>1202</v>
       </c>
       <c r="I6" s="7">
-        <v>123314</v>
+        <v>657261</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>340</v>
+        <v>1918</v>
       </c>
       <c r="N6" s="7">
-        <v>219906</v>
+        <v>1282044</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D7" s="7">
-        <v>87567</v>
+        <v>91874</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="I7" s="7">
-        <v>102171</v>
+        <v>149533</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="N7" s="7">
-        <v>189738</v>
+        <v>241407</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>492</v>
+        <v>836</v>
       </c>
       <c r="D8" s="7">
-        <v>456076</v>
+        <v>1093905</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>771</v>
+        <v>1205</v>
       </c>
       <c r="I8" s="7">
-        <v>478550</v>
+        <v>792463</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1263</v>
+        <v>2041</v>
       </c>
       <c r="N8" s="7">
-        <v>934626</v>
+        <v>1886367</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>605</v>
+        <v>957</v>
       </c>
       <c r="D9" s="7">
-        <v>543643</v>
+        <v>1185779</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>973</v>
+        <v>1488</v>
       </c>
       <c r="I9" s="7">
-        <v>580721</v>
+        <v>941996</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1578</v>
+        <v>2445</v>
       </c>
       <c r="N9" s="7">
-        <v>1124364</v>
+        <v>2127774</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>99290</v>
+        <v>39198</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>168190</v>
+        <v>59298</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="N10" s="7">
-        <v>267481</v>
+        <v>98496</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>836</v>
+        <v>622</v>
       </c>
       <c r="D11" s="7">
-        <v>932314</v>
+        <v>652404</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1205</v>
+        <v>939</v>
       </c>
       <c r="I11" s="7">
-        <v>873614</v>
+        <v>864391</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>2041</v>
+        <v>1561</v>
       </c>
       <c r="N11" s="7">
-        <v>1805927</v>
+        <v>1516795</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>957</v>
+        <v>666</v>
       </c>
       <c r="D12" s="7">
-        <v>1031604</v>
+        <v>691602</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1488</v>
+        <v>1030</v>
       </c>
       <c r="I12" s="7">
-        <v>1041804</v>
+        <v>923689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2445</v>
+        <v>1696</v>
       </c>
       <c r="N12" s="7">
-        <v>2073408</v>
+        <v>1615291</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="D13" s="7">
-        <v>42621</v>
+        <v>100269</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="I13" s="7">
-        <v>66665</v>
+        <v>158662</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="N13" s="7">
-        <v>109286</v>
+        <v>258931</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>622</v>
+        <v>865</v>
       </c>
       <c r="D14" s="7">
-        <v>673080</v>
+        <v>814120</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>939</v>
+        <v>1271</v>
       </c>
       <c r="I14" s="7">
-        <v>796939</v>
+        <v>920697</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1561</v>
+        <v>2136</v>
       </c>
       <c r="N14" s="7">
-        <v>1470019</v>
+        <v>1734817</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>666</v>
+        <v>992</v>
       </c>
       <c r="D15" s="7">
-        <v>715701</v>
+        <v>914389</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1030</v>
+        <v>1539</v>
       </c>
       <c r="I15" s="7">
-        <v>863604</v>
+        <v>1079359</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1696</v>
+        <v>2531</v>
       </c>
       <c r="N15" s="7">
-        <v>1579305</v>
+        <v>1993748</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>127</v>
+        <v>425</v>
       </c>
       <c r="D16" s="7">
-        <v>109829</v>
+        <v>323628</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>909</v>
+      </c>
+      <c r="I16" s="7">
+        <v>487482</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>268</v>
-      </c>
-      <c r="I16" s="7">
-        <v>179252</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1334</v>
+      </c>
+      <c r="N16" s="7">
+        <v>811110</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>395</v>
-      </c>
-      <c r="N16" s="7">
-        <v>289081</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>865</v>
+        <v>2906</v>
       </c>
       <c r="D17" s="7">
-        <v>842695</v>
+        <v>3092925</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4350</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3114823</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1271</v>
-      </c>
-      <c r="I17" s="7">
-        <v>954816</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7256</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6207748</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>2136</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1797511</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>992</v>
+        <v>3331</v>
       </c>
       <c r="D18" s="7">
-        <v>952524</v>
+        <v>3416553</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1539</v>
+        <v>5259</v>
       </c>
       <c r="I18" s="7">
-        <v>1134068</v>
+        <v>3602305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2531</v>
+        <v>8590</v>
       </c>
       <c r="N18" s="7">
-        <v>2086592</v>
+        <v>7018858</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>425</v>
-      </c>
-      <c r="D19" s="7">
-        <v>351244</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>909</v>
-      </c>
-      <c r="I19" s="7">
-        <v>544360</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1334</v>
-      </c>
-      <c r="N19" s="7">
-        <v>895603</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2906</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2988821</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4350</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3199152</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7256</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6187973</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3331</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3340065</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3743512</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8590</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7083576</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
